--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="N2">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="O2">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="P2">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="Q2">
-        <v>0.287719631864</v>
+        <v>0.149243212488</v>
       </c>
       <c r="R2">
-        <v>2.589476686776</v>
+        <v>1.343188912392</v>
       </c>
       <c r="S2">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="T2">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>85.851541</v>
       </c>
       <c r="O3">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="P3">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="Q3">
         <v>45.98964029520801</v>
@@ -638,10 +638,10 @@
         <v>413.906762656872</v>
       </c>
       <c r="S3">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="T3">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="N4">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="O4">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="P4">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="Q4">
-        <v>0.296909895192</v>
+        <v>0.390616189968</v>
       </c>
       <c r="R4">
-        <v>2.672189056728</v>
+        <v>3.515545709712</v>
       </c>
       <c r="S4">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="T4">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="N5">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="O5">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="P5">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="Q5">
-        <v>12.634400488092</v>
+        <v>3.04569563982</v>
       </c>
       <c r="R5">
-        <v>75.80640292855199</v>
+        <v>18.27417383892</v>
       </c>
       <c r="S5">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="T5">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="N6">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="O6">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="P6">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="Q6">
-        <v>0.046467719872</v>
+        <v>0.022479075544</v>
       </c>
       <c r="R6">
-        <v>0.418209478848</v>
+        <v>0.202311679896</v>
       </c>
       <c r="S6">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="T6">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
     </row>
   </sheetData>
